--- a/Documentacao do Projeto/Backlog Projeto.xlsx
+++ b/Documentacao do Projeto/Backlog Projeto.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruno\Desktop\Faculdade\!projeto-individual\Projeto-Filme-Veio\Documentacao do Projeto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brufe\OneDrive\Área de Trabalho\Git\Projeto-Filme-Veio\Documentacao do Projeto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1227B37C-F80A-46E9-8BFA-1422BABF1DFB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDF126F8-7857-4099-8380-1CA197E12E77}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="30">
   <si>
     <r>
       <t>§</t>
@@ -465,6 +465,41 @@
   </si>
   <si>
     <t>BACKLOG DO PROJETO</t>
+  </si>
+  <si>
+    <r>
+      <t>§</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Chat: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Local onde teremos o chat que será uma conversa entre os usuarios.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1104,21 +1139,84 @@
     <xf numFmtId="0" fontId="14" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1128,71 +1226,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1598,7 +1633,7 @@
   <dimension ref="B1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19:D21"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1611,149 +1646,149 @@
   <sheetData>
     <row r="1" spans="3:7" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="3:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="40"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="32"/>
     </row>
     <row r="3" spans="3:7" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="41"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="43"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="35"/>
     </row>
     <row r="4" spans="3:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="44" t="s">
+      <c r="C4" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="37" t="s">
+      <c r="D4" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="44" t="s">
+      <c r="E4" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="44" t="s">
+      <c r="F4" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="46" t="s">
+      <c r="G4" s="37" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="5" spans="3:7" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="45"/>
+      <c r="C5" s="48"/>
       <c r="D5" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="46"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="37"/>
     </row>
     <row r="6" spans="3:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="12">
         <v>1</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="26" t="s">
+      <c r="E6" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="26">
+      <c r="F6" s="20">
         <v>5</v>
       </c>
-      <c r="G6" s="26">
+      <c r="G6" s="20">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="3:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="27">
+      <c r="C7" s="47">
         <v>2</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="28" t="s">
+      <c r="E7" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="28">
+      <c r="F7" s="42">
         <v>21</v>
       </c>
-      <c r="G7" s="28">
+      <c r="G7" s="42">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="3:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="27"/>
-      <c r="D8" s="47" t="s">
+      <c r="C8" s="47"/>
+      <c r="D8" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
     </row>
     <row r="9" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="27"/>
-      <c r="D9" s="47" t="s">
+      <c r="C9" s="47"/>
+      <c r="D9" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
     </row>
     <row r="10" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="27"/>
-      <c r="D10" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
     </row>
     <row r="11" spans="3:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="27"/>
-      <c r="D11" s="47" t="s">
+      <c r="C11" s="47"/>
+      <c r="D11" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
     </row>
     <row r="12" spans="3:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="27"/>
-      <c r="D12" s="47" t="s">
+      <c r="C12" s="47"/>
+      <c r="D12" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
     </row>
     <row r="13" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="27"/>
-      <c r="D13" s="47" t="s">
+      <c r="C13" s="47"/>
+      <c r="D13" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
     </row>
     <row r="14" spans="3:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" s="13">
         <v>3</v>
       </c>
-      <c r="D14" s="33" t="s">
+      <c r="D14" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="26" t="s">
+      <c r="E14" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="26">
+      <c r="F14" s="20">
         <v>13</v>
       </c>
-      <c r="G14" s="26">
+      <c r="G14" s="20">
         <v>5</v>
       </c>
     </row>
@@ -1761,16 +1796,16 @@
       <c r="C15" s="13">
         <v>4</v>
       </c>
-      <c r="D15" s="33" t="s">
+      <c r="D15" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="26" t="s">
+      <c r="E15" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="26">
+      <c r="F15" s="20">
         <v>13</v>
       </c>
-      <c r="G15" s="26">
+      <c r="G15" s="20">
         <v>7</v>
       </c>
     </row>
@@ -1778,16 +1813,16 @@
       <c r="C16" s="11">
         <v>5</v>
       </c>
-      <c r="D16" s="33" t="s">
+      <c r="D16" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="26" t="s">
+      <c r="E16" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="F16" s="26">
+      <c r="F16" s="20">
         <v>8</v>
       </c>
-      <c r="G16" s="26">
+      <c r="G16" s="20">
         <v>8</v>
       </c>
     </row>
@@ -1796,100 +1831,100 @@
       <c r="D17" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="19"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="21"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="19"/>
     </row>
     <row r="18" spans="2:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="36"/>
-      <c r="C18" s="24">
+      <c r="B18" s="26"/>
+      <c r="C18" s="45">
         <v>6</v>
       </c>
-      <c r="D18" s="34" t="s">
+      <c r="D18" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="28" t="s">
+      <c r="E18" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="F18" s="28">
+      <c r="F18" s="42">
         <v>13</v>
       </c>
-      <c r="G18" s="28">
+      <c r="G18" s="42">
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B19" s="36"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="48" t="s">
+      <c r="B19" s="26"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
     </row>
     <row r="20" spans="2:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="36"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="48" t="s">
+      <c r="B20" s="26"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="43"/>
     </row>
     <row r="21" spans="2:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="36"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="48" t="s">
+      <c r="B21" s="26"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="44"/>
     </row>
     <row r="22" spans="2:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B22" s="36"/>
-      <c r="C22" s="26">
+      <c r="B22" s="26"/>
+      <c r="C22" s="20">
         <v>7</v>
       </c>
-      <c r="D22" s="34" t="s">
+      <c r="D22" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E22" s="26" t="s">
+      <c r="E22" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="F22" s="26">
+      <c r="F22" s="20">
         <v>8</v>
       </c>
-      <c r="G22" s="26">
+      <c r="G22" s="20">
         <v>4</v>
       </c>
     </row>
     <row r="23" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="36"/>
+      <c r="B23" s="26"/>
       <c r="C23" s="12">
         <v>8</v>
       </c>
-      <c r="D23" s="35" t="s">
+      <c r="D23" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="E23" s="26" t="s">
+      <c r="E23" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F23" s="26">
+      <c r="F23" s="20">
         <v>21</v>
       </c>
-      <c r="G23" s="26">
+      <c r="G23" s="20">
         <v>6</v>
       </c>
     </row>
     <row r="24" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="17"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="23"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -1909,5 +1944,6 @@
     <mergeCell ref="E4:E5"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Documentacao do Projeto/Backlog Projeto.xlsx
+++ b/Documentacao do Projeto/Backlog Projeto.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brufe\OneDrive\Área de Trabalho\Git\Projeto-Filme-Veio\Documentacao do Projeto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDF126F8-7857-4099-8380-1CA197E12E77}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6E29987-AAC2-4AA5-831C-86E21BBD4F62}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Plan1" sheetId="1" r:id="rId1"/>
-    <sheet name="Planilha1" sheetId="2" r:id="rId2"/>
+    <sheet name="Planilha1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
   <si>
     <r>
       <t>§</t>
@@ -84,17 +83,17 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Fórum: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Local onde teremos o fórum dos usuários indicando filmes.</t>
+      <t xml:space="preserve">Sobre: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Fala um pouco o porquê que eu escolhi este tema, e as maneiras de contato.</t>
     </r>
   </si>
   <si>
@@ -119,17 +118,17 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Sobre: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Fala um pouco o porquê que eu escolhi este tema, e as maneiras de contato.</t>
+      <t>Cadastro:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Local onde o cliente se cadastrará.</t>
     </r>
   </si>
   <si>
@@ -154,17 +153,17 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Cadastro:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Local onde o cliente se cadastrará.</t>
+      <t>Login:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> onde o cliente vai entrar na conta.</t>
     </r>
   </si>
   <si>
@@ -189,23 +188,23 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Login:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> onde o cliente vai entrar na conta.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>§</t>
-    </r>
+      <t xml:space="preserve">Lista Filmes: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Aqui ter uma listagem de filmes em que poderemos visualizar alguns dos filmes, que ser o escolhidos randomicamente.</t>
+    </r>
+  </si>
+  <si>
+    <t>Quando entrar no site o usuário encontrará as seguintes páginas:</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="7"/>
@@ -213,32 +212,18 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Lista Filmes: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Aqui ter uma listagem de filmes em que poderemos visualizar alguns dos filmes, que ser o escolhidos randomicamente.</t>
-    </r>
-  </si>
-  <si>
-    <t>Quando entrar no site o usuário encontrará as seguintes páginas:</t>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>O sistema deverá mostrar os comentarios dos usuarios na parte do fórum.</t>
+    </r>
   </si>
   <si>
     <r>
@@ -258,8 +243,11 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>O sistema deverá mostrar os comentarios dos usuarios na parte do fórum.</t>
-    </r>
+      <t>O sistema deverá trazer algum dos filmes.</t>
+    </r>
+  </si>
+  <si>
+    <t>Aplicativo web</t>
   </si>
   <si>
     <r>
@@ -279,44 +267,52 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>O sistema deverá trazer algum dos filmes.</t>
-    </r>
-  </si>
-  <si>
-    <t>Aplicativo web</t>
-  </si>
-  <si>
+      <t>Após o login, o sistema deve permitir a entrada dos usuarios.</t>
+    </r>
+  </si>
+  <si>
+    <t>O banco de dados deverá armazenar os comentários dos usuários.</t>
+  </si>
+  <si>
+    <t>Após o cadastro o banco de dados armazena todos os dados do cliente.</t>
+  </si>
+  <si>
+    <t>Com as tabelas criadas no MySql podemos registrar os dados:</t>
+  </si>
+  <si>
+    <r>
+      <t>§</t>
+    </r>
     <r>
       <rPr>
         <sz val="7"/>
-        <color rgb="FF000000"/>
+        <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Após o login, o sistema deve permitir a entrada dos usuarios.</t>
-    </r>
-  </si>
-  <si>
-    <t>Acesso á internet.</t>
-  </si>
-  <si>
-    <t>O banco de dados deverá armazenar os comentários dos usuários.</t>
-  </si>
-  <si>
-    <t>Após o cadastro o banco de dados armazena todos os dados do cliente.</t>
-  </si>
-  <si>
-    <t>Com as tabelas criadas no MySql podemos registrar os dados:</t>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Usuarios:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  Parte que irá ter as informações dos usuários para o login.</t>
+    </r>
   </si>
   <si>
     <r>
@@ -329,73 +325,106 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve">  </t>
+      <t> </t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Usuarios:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  Parte que irá ter as informações dos usuários para o login.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>§</t>
-    </r>
-    <r>
-      <rPr>
         <sz val="7"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t> </t>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
         <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Filmes:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Parte na qual estará armazenado os filmes.</t>
+    </r>
+  </si>
+  <si>
+    <t>Banco de dados</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>REQUISITOS</t>
+  </si>
+  <si>
+    <t>CLASSIFICAÇÃO</t>
+  </si>
+  <si>
+    <t>TAMANHO</t>
+  </si>
+  <si>
+    <t>ORDEM DE EXECUÇÃO</t>
+  </si>
+  <si>
+    <t>Importante</t>
+  </si>
+  <si>
+    <t>Essencial</t>
+  </si>
+  <si>
+    <t>Desejavel</t>
+  </si>
+  <si>
+    <t>Estilo da Pagina</t>
+  </si>
+  <si>
+    <t>BACKLOG DO PROJETO</t>
+  </si>
+  <si>
+    <r>
+      <t>§</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="7"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> </t>
+      <t xml:space="preserve">  </t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Filmes:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Parte na qual estará armazenado os filmes.</t>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Chat: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Local onde teremos o chat que será uma conversa entre os usuarios.</t>
     </r>
   </si>
   <si>
@@ -420,7 +449,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Forum:</t>
+      <t>Chat:</t>
     </r>
     <r>
       <rPr>
@@ -434,71 +463,75 @@
     </r>
   </si>
   <si>
-    <t>Banco de dados</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>REQUISITOS</t>
-  </si>
-  <si>
-    <t>CLASSIFICAÇÃO</t>
-  </si>
-  <si>
-    <t>TAMANHO</t>
-  </si>
-  <si>
-    <t>ORDEM DE EXECUÇÃO</t>
-  </si>
-  <si>
-    <t>Importante</t>
-  </si>
-  <si>
-    <t>Essencial</t>
-  </si>
-  <si>
-    <t>Desejavel</t>
-  </si>
-  <si>
-    <t>Estilo da Pagina</t>
-  </si>
-  <si>
-    <t>BACKLOG DO PROJETO</t>
-  </si>
-  <si>
     <r>
       <t>§</t>
     </r>
     <r>
       <rPr>
-        <sz val="7"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Chat: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Local onde teremos o chat que será uma conversa entre os usuarios.</t>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Tipo: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Parte que teremos o tipo de filme, e a categoria que ele estará inserido.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>§</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ator:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Parte que aparecerá os atores que participaram do filme.</t>
     </r>
   </si>
 </sst>
@@ -672,82 +705,11 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="31">
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="9" tint="-0.499984740745262"/>
-      </left>
-      <right style="medium">
-        <color theme="9" tint="-0.499984740745262"/>
-      </right>
-      <top style="medium">
-        <color theme="9" tint="-0.499984740745262"/>
-      </top>
-      <bottom style="medium">
-        <color theme="9" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1" tint="4.9989318521683403E-2"/>
-      </left>
-      <right style="thin">
-        <color theme="1" tint="4.9989318521683403E-2"/>
-      </right>
-      <top style="thin">
-        <color theme="1" tint="4.9989318521683403E-2"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1" tint="4.9989318521683403E-2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="7" tint="-0.499984740745262"/>
-      </left>
-      <right style="thin">
-        <color theme="7" tint="-0.499984740745262"/>
-      </right>
-      <top style="thin">
-        <color theme="7" tint="-0.499984740745262"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -1091,142 +1053,112 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1508,132 +1440,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:B22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1612AE02-2431-4635-9043-18A607210718}">
+  <dimension ref="B1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="93" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:2" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="B5" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="B8" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="1"/>
-    </row>
-    <row r="15" spans="2:2" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B15" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="2:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B17" s="10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B19" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1612AE02-2431-4635-9043-18A607210718}">
-  <dimension ref="B1:G24"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1646,299 +1457,319 @@
   <sheetData>
     <row r="1" spans="3:7" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="3:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="22"/>
+    </row>
+    <row r="3" spans="3:7" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="23"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="25"/>
+    </row>
+    <row r="4" spans="3:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="3:7" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="38"/>
+      <c r="D5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="27"/>
+    </row>
+    <row r="6" spans="3:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="10">
+        <v>5</v>
+      </c>
+      <c r="G6" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="3:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="37">
+        <v>2</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="32">
+        <v>21</v>
+      </c>
+      <c r="G7" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="3:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="37"/>
+      <c r="D8" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+    </row>
+    <row r="9" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="37"/>
+      <c r="D9" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+    </row>
+    <row r="10" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="37"/>
+      <c r="D10" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+    </row>
+    <row r="11" spans="3:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="37"/>
+      <c r="D11" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+    </row>
+    <row r="12" spans="3:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="37"/>
+      <c r="D12" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+    </row>
+    <row r="13" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="37"/>
+      <c r="D13" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+    </row>
+    <row r="14" spans="3:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="3">
+        <v>3</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="10">
+        <v>13</v>
+      </c>
+      <c r="G14" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="3:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C15" s="3">
+        <v>4</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="10">
+        <v>13</v>
+      </c>
+      <c r="G15" s="10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="3:7" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="1">
+        <v>5</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="10">
+        <v>8</v>
+      </c>
+      <c r="G16" s="10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="4"/>
+      <c r="D17" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="9"/>
+    </row>
+    <row r="18" spans="2:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B18" s="16"/>
+      <c r="C18" s="35">
+        <v>6</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="32">
+        <v>13</v>
+      </c>
+      <c r="G18" s="32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B19" s="16"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+    </row>
+    <row r="20" spans="2:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B20" s="16"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
+    </row>
+    <row r="21" spans="2:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B21" s="16"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="32"/>
-    </row>
-    <row r="3" spans="3:7" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="33"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="35"/>
-    </row>
-    <row r="4" spans="3:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="36" t="s">
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+    </row>
+    <row r="22" spans="2:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B22" s="16"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+    </row>
+    <row r="23" spans="2:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B23" s="16"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+    </row>
+    <row r="24" spans="2:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B24" s="16"/>
+      <c r="C24" s="10">
+        <v>7</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="37" t="s">
+      <c r="F24" s="10">
+        <v>8</v>
+      </c>
+      <c r="G24" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="16"/>
+      <c r="C25" s="2">
+        <v>8</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="10" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" spans="3:7" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="48"/>
-      <c r="D5" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="37"/>
-    </row>
-    <row r="6" spans="3:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="12">
-        <v>1</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="20">
-        <v>5</v>
-      </c>
-      <c r="G6" s="20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="3:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="47">
-        <v>2</v>
-      </c>
-      <c r="D7" s="22" t="s">
+      <c r="F25" s="10">
+        <v>21</v>
+      </c>
+      <c r="G25" s="10">
         <v>6</v>
       </c>
-      <c r="E7" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="42">
-        <v>21</v>
-      </c>
-      <c r="G7" s="42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="3:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="47"/>
-      <c r="D8" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-    </row>
-    <row r="9" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="47"/>
-      <c r="D9" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-    </row>
-    <row r="10" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="47"/>
-      <c r="D10" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-    </row>
-    <row r="11" spans="3:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="47"/>
-      <c r="D11" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-    </row>
-    <row r="12" spans="3:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="47"/>
-      <c r="D12" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-    </row>
-    <row r="13" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="47"/>
-      <c r="D13" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-    </row>
-    <row r="14" spans="3:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="13">
-        <v>3</v>
-      </c>
-      <c r="D14" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="F14" s="20">
-        <v>13</v>
-      </c>
-      <c r="G14" s="20">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="3:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C15" s="13">
-        <v>4</v>
-      </c>
-      <c r="D15" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" s="20">
-        <v>13</v>
-      </c>
-      <c r="G15" s="20">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="3:7" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="11">
-        <v>5</v>
-      </c>
-      <c r="D16" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="F16" s="20">
-        <v>8</v>
-      </c>
-      <c r="G16" s="20">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="14"/>
-      <c r="D17" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="17"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="19"/>
-    </row>
-    <row r="18" spans="2:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="26"/>
-      <c r="C18" s="45">
-        <v>6</v>
-      </c>
-      <c r="D18" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="F18" s="42">
-        <v>13</v>
-      </c>
-      <c r="G18" s="42">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B19" s="26"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="43"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="43"/>
-    </row>
-    <row r="20" spans="2:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="26"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="43"/>
-    </row>
-    <row r="21" spans="2:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="26"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44"/>
-    </row>
-    <row r="22" spans="2:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B22" s="26"/>
-      <c r="C22" s="20">
-        <v>7</v>
-      </c>
-      <c r="D22" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="F22" s="20">
-        <v>8</v>
-      </c>
-      <c r="G22" s="20">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="26"/>
-      <c r="C23" s="12">
-        <v>8</v>
-      </c>
-      <c r="D23" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="F23" s="20">
-        <v>21</v>
-      </c>
-      <c r="G23" s="20">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="38"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="41"/>
+    </row>
+    <row r="26" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="28"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="14">
     <mergeCell ref="C2:G3"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="G4:G5"/>
-    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C26:G26"/>
     <mergeCell ref="E7:E13"/>
     <mergeCell ref="F7:F13"/>
     <mergeCell ref="G7:G13"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="E18:E21"/>
-    <mergeCell ref="F18:F21"/>
-    <mergeCell ref="G18:G21"/>
+    <mergeCell ref="C18:C23"/>
+    <mergeCell ref="E18:E23"/>
+    <mergeCell ref="F18:F23"/>
+    <mergeCell ref="G18:G23"/>
     <mergeCell ref="C7:C13"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="E4:E5"/>

--- a/Documentacao do Projeto/Backlog Projeto.xlsx
+++ b/Documentacao do Projeto/Backlog Projeto.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brufe\OneDrive\Área de Trabalho\Git\Projeto-Filme-Veio\Documentacao do Projeto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6E29987-AAC2-4AA5-831C-86E21BBD4F62}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA903CEE-C112-43EF-A7E8-251D34A61AD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
   <si>
     <r>
       <t>§</t>
@@ -315,17 +315,96 @@
     </r>
   </si>
   <si>
+    <t>Banco de dados</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>REQUISITOS</t>
+  </si>
+  <si>
+    <t>CLASSIFICAÇÃO</t>
+  </si>
+  <si>
+    <t>TAMANHO</t>
+  </si>
+  <si>
+    <t>ORDEM DE EXECUÇÃO</t>
+  </si>
+  <si>
+    <t>Importante</t>
+  </si>
+  <si>
+    <t>Essencial</t>
+  </si>
+  <si>
+    <t>Desejavel</t>
+  </si>
+  <si>
+    <t>Estilo da Pagina</t>
+  </si>
+  <si>
+    <t>BACKLOG DO PROJETO</t>
+  </si>
+  <si>
     <r>
       <t>§</t>
     </r>
     <r>
       <rPr>
         <sz val="7"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Chat: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Local onde teremos o chat que será uma conversa entre os usuarios.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>§</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
       <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Publicação</t>
     </r>
     <r>
       <rPr>
@@ -346,67 +425,32 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Filmes:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Parte na qual estará armazenado os filmes.</t>
-    </r>
-  </si>
-  <si>
-    <t>Banco de dados</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>REQUISITOS</t>
-  </si>
-  <si>
-    <t>CLASSIFICAÇÃO</t>
-  </si>
-  <si>
-    <t>TAMANHO</t>
-  </si>
-  <si>
-    <t>ORDEM DE EXECUÇÃO</t>
-  </si>
-  <si>
-    <t>Importante</t>
-  </si>
-  <si>
-    <t>Essencial</t>
-  </si>
-  <si>
-    <t>Desejavel</t>
-  </si>
-  <si>
-    <t>Estilo da Pagina</t>
-  </si>
-  <si>
-    <t>BACKLOG DO PROJETO</t>
-  </si>
-  <si>
-    <r>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Parte na qual estará armazenado os comentários dos usuários.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Wingdings"/>
+        <charset val="2"/>
+      </rPr>
       <t>§</t>
     </r>
     <r>
       <rPr>
-        <sz val="7"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
         <b/>
         <sz val="14"/>
         <color rgb="FF000000"/>
@@ -414,124 +458,17 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Chat: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Local onde teremos o chat que será uma conversa entre os usuarios.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>§</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Chat:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Parte na qual estará armazenado os comentários dos usuários.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>§</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Tipo: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Parte que teremos o tipo de filme, e a categoria que ele estará inserido.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>§</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Ator:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Parte que aparecerá os atores que participaram do filme.</t>
+      <t xml:space="preserve"> Filme Individual: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Onde o usuario poderá ver mais informações sobre o filme</t>
     </r>
   </si>
 </sst>
@@ -539,7 +476,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -653,6 +590,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Wingdings"/>
+      <charset val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -1441,16 +1385,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1612AE02-2431-4635-9043-18A607210718}">
-  <dimension ref="B1:G26"/>
+  <dimension ref="B1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="95.5703125" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" customWidth="1"/>
+    <col min="4" max="4" width="97" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" customWidth="1"/>
     <col min="6" max="6" width="17.5703125" customWidth="1"/>
     <col min="7" max="7" width="15.7109375" customWidth="1"/>
   </cols>
@@ -1458,7 +1402,7 @@
     <row r="1" spans="3:7" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="3:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C2" s="20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" s="21"/>
       <c r="E2" s="21"/>
@@ -1474,19 +1418,19 @@
     </row>
     <row r="4" spans="3:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="E4" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="F4" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="G4" s="27" t="s">
         <v>19</v>
-      </c>
-      <c r="G4" s="27" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="5" spans="3:7" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1503,10 +1447,10 @@
         <v>1</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F6" s="10">
         <v>5</v>
@@ -1523,7 +1467,7 @@
         <v>5</v>
       </c>
       <c r="E7" s="32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F7" s="32">
         <v>21</v>
@@ -1550,135 +1494,134 @@
       <c r="F9" s="33"/>
       <c r="G9" s="33"/>
     </row>
-    <row r="10" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="37"/>
       <c r="D10" s="18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E10" s="33"/>
       <c r="F10" s="33"/>
       <c r="G10" s="33"/>
     </row>
-    <row r="11" spans="3:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="37"/>
       <c r="D11" s="18" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="E11" s="33"/>
       <c r="F11" s="33"/>
       <c r="G11" s="33"/>
     </row>
-    <row r="12" spans="3:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" s="37"/>
       <c r="D12" s="18" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E12" s="33"/>
       <c r="F12" s="33"/>
       <c r="G12" s="33"/>
     </row>
-    <row r="13" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" s="37"/>
       <c r="D13" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+    </row>
+    <row r="14" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="37"/>
+      <c r="D14" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-    </row>
-    <row r="14" spans="3:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="3">
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+    </row>
+    <row r="15" spans="3:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="3">
         <v>3</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D15" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14" s="10">
-        <v>13</v>
-      </c>
-      <c r="G14" s="10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="3:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C15" s="3">
-        <v>4</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>6</v>
-      </c>
       <c r="E15" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F15" s="10">
         <v>13</v>
       </c>
       <c r="G15" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="3:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C16" s="3">
+        <v>4</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="10">
+        <v>13</v>
+      </c>
+      <c r="G16" s="10">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="3:7" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="1">
+    <row r="17" spans="2:7" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="1">
         <v>5</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D17" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E16" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F16" s="10">
+      <c r="E17" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="10">
         <v>8</v>
       </c>
-      <c r="G16" s="10">
+      <c r="G17" s="10">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="4"/>
-      <c r="D17" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="9"/>
-    </row>
-    <row r="18" spans="2:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="16"/>
-      <c r="C18" s="35">
-        <v>6</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="F18" s="32">
-        <v>13</v>
-      </c>
-      <c r="G18" s="32">
-        <v>3</v>
-      </c>
+    <row r="18" spans="2:7" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="4"/>
+      <c r="D18" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="9"/>
     </row>
     <row r="19" spans="2:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B19" s="16"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="19" t="s">
+      <c r="C19" s="35">
+        <v>6</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="32">
         <v>13</v>
       </c>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
+      <c r="G19" s="32">
+        <v>3</v>
+      </c>
     </row>
     <row r="20" spans="2:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B20" s="16"/>
       <c r="C20" s="36"/>
       <c r="D20" s="19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E20" s="33"/>
       <c r="F20" s="33"/>
@@ -1688,89 +1631,69 @@
       <c r="B21" s="16"/>
       <c r="C21" s="36"/>
       <c r="D21" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E21" s="33"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="33"/>
+        <v>26</v>
+      </c>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
     </row>
     <row r="22" spans="2:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B22" s="16"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
-    </row>
-    <row r="23" spans="2:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C22" s="10">
+        <v>7</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" s="10">
+        <v>8</v>
+      </c>
+      <c r="G22" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="16"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
-    </row>
-    <row r="24" spans="2:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B24" s="16"/>
-      <c r="C24" s="10">
-        <v>7</v>
-      </c>
-      <c r="D24" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" s="10" t="s">
+      <c r="C23" s="2">
+        <v>8</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23" s="10">
         <v>21</v>
       </c>
-      <c r="F24" s="10">
-        <v>8</v>
-      </c>
-      <c r="G24" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="16"/>
-      <c r="C25" s="2">
-        <v>8</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F25" s="10">
-        <v>21</v>
-      </c>
-      <c r="G25" s="10">
+      <c r="G23" s="10">
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="28"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="31"/>
+    <row r="24" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="28"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="14">
     <mergeCell ref="C2:G3"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="G4:G5"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="E7:E13"/>
-    <mergeCell ref="F7:F13"/>
-    <mergeCell ref="G7:G13"/>
-    <mergeCell ref="C18:C23"/>
-    <mergeCell ref="E18:E23"/>
-    <mergeCell ref="F18:F23"/>
-    <mergeCell ref="G18:G23"/>
-    <mergeCell ref="C7:C13"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="E7:E14"/>
+    <mergeCell ref="F7:F14"/>
+    <mergeCell ref="G7:G14"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="G19:G21"/>
+    <mergeCell ref="C7:C14"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="E4:E5"/>
   </mergeCells>
